--- a/biology/Médecine/Gaston_Bourret/Gaston_Bourret.xlsx
+++ b/biology/Médecine/Gaston_Bourret/Gaston_Bourret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Désiré Gaston Bourret, né le 13 septembre 1875 à Saint-Léger (Alpes-Maritimes) et mort le 24 avril 1917 à Nouméa[1], est un médecin bactériologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Désiré Gaston Bourret, né le 13 septembre 1875 à Saint-Léger (Alpes-Maritimes) et mort le 24 avril 1917 à Nouméa, est un médecin bactériologiste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille originaire de  Saint-Léger (Alpes-Maritimes) le poussait vers une carrière dans l'armée mais, attiré par la  médecine, il effectue ses études à l'école du service de Santé de la Marine à Bordeaux. Il en sort docteur en 1901, spécialisé en médecine tropicale. Sa thèse s'intitule "Contribution à l'étude des hématies à granulations basophiles dans le saturnisme expérimental". Il poursuit ensuite sa formation en bactériologie et deviendra un spécialiste de la lèpre. Certaines de ses publications sont encore disponibles (article "Quelques recherches sur la lèpre" dans ....?).  
 Médecin militaire, il est alors désigné pour servir en Guinée (1905) . Il en revient en 1907 pour une affectation à Paris. Puis il est attaché à la mission scientifique dano-française aux Antilles en Guyane (1909). L'année suivante, Gaston Bourret est nommé Directeur du laboratoire bactériologique de Saint Louis au Sénégal (1910). Il épouse Renée Marie Hélène Bonnet le 22 octobre 1912 à Paris (7e arrondissement). L'armée le détache alors dans la capitale, à l'Institut Pasteur. Il repart aux colonies en 1913, cette fois à Hué en Indochine, de nouveau comme Directeur du laboratoire bactériologique. Au cours de ces années, il reçoit plusieurs distinctions coloniales. 
@@ -546,7 +560,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une exposition au sein du CHT et un livre ,"On l'appelait Gaston", ont été dévoilés au public en 2019 par le journaliste Jean-Marc Estournès. Il s'agissait de présenter l'histoire de l'hôpital depuis sa création. On y trouve donc expliqué le parcours de celui qui lui a donné son nom. Ce dernier est par ailleurs revenu à de nombreuses reprises dans l'argumentaire polémique autour des déclarations du Président de la République Emmanuel Macron sur la colonisation.
 </t>
@@ -577,9 +593,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chevalier de la Légion d'honneur en 1916[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chevalier de la Légion d'honneur en 1916.
 Croix de guerre
 Médaille coloniale, agrafe "Afrique Occidentale française"
 Officier d'Académie
